--- a/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,02</t>
+          <t>0,0; 29,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,2</t>
+          <t>0; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,47</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,43</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,93</t>
+          <t>9,42; 47,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,8</t>
+          <t>0,0; 23,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,27</t>
+          <t>0,0; 37,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,65</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,06</t>
+          <t>6,1; 29,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,95</t>
+          <t>0,0; 14,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,58</t>
+          <t>0,0; 23,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,3</t>
+          <t>0; 7,61</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,16</t>
+          <t>2,37; 10,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,56</t>
+          <t>1,22; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,53; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,03</t>
+          <t>0,87; 7,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,75</t>
+          <t>3,45; 10,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,56</t>
+          <t>1,75; 7,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>1,42; 7,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,85</t>
+          <t>0,75; 6,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,81</t>
+          <t>3,74; 9,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,52</t>
+          <t>2,03; 5,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,3</t>
+          <t>1,16; 4,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,09</t>
+          <t>1,3; 5,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,48</t>
+          <t>1,75; 10,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,85; 7,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,95; 18,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 47,6</t>
+          <t>2,64; 11,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,0</t>
+          <t>1,84; 11,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,88</t>
+          <t>1,59; 8,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 29,82</t>
+          <t>3,19; 9,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,86</t>
+          <t>1,29; 6,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,34</t>
+          <t>1,69; 6,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,91; 10,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,08</t>
+          <t>0,67; 6,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>2,18; 10,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,29</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 18,83</t>
+          <t>1,62; 9,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,95</t>
+          <t>0,74; 6,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,0</t>
+          <t>2,24; 10,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,58</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 5,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,52</t>
+          <t>0,9; 4,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,16</t>
+          <t>2,87; 8,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,74</t>
+          <t>0,33; 3,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,35</t>
+          <t>1,12; 5,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,48</t>
+          <t>0,0; 35,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 47,6</t>
+          <t>9,75; 49,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,0</t>
+          <t>0,0; 32,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,88</t>
+          <t>0,0; 38,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 29,82</t>
+          <t>5,58; 29,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,86</t>
+          <t>0,0; 15,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,34</t>
+          <t>0,0; 20,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,6</t>
+          <t>2,97; 14,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 12,2</t>
+          <t>2,15; 11,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,52</t>
+          <t>2,62; 14,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,02</t>
+          <t>1,04; 9,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,06</t>
+          <t>1,06; 9,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 14,0</t>
+          <t>2,42; 14,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 12,03</t>
+          <t>2,27; 12,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,16</t>
+          <t>2,72; 9,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,79</t>
+          <t>1,74; 8,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 11,35</t>
+          <t>3,99; 12,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,91</t>
+          <t>1,37; 6,57</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 10,02</t>
+          <t>2,43; 9,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,2</t>
+          <t>1,65; 7,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,47</t>
+          <t>0,52; 4,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,43</t>
+          <t>0,87; 7,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,93</t>
+          <t>3,46; 11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,8</t>
+          <t>1,21; 7,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,27</t>
+          <t>1,19; 7,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,65</t>
+          <t>0,66; 6,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,06</t>
+          <t>3,75; 8,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,95</t>
+          <t>1,83; 5,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,58</t>
+          <t>1,1; 4,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,3</t>
+          <t>1,44; 5,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,08</t>
+          <t>1,77; 9,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,43</t>
+          <t>0,0; 5,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,29</t>
+          <t>0,85; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 18,83</t>
+          <t>0,93; 19,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,95</t>
+          <t>2,7; 12,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,0</t>
+          <t>1,83; 10,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,58</t>
+          <t>1,59; 9,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,52</t>
+          <t>3,05; 8,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,16</t>
+          <t>1,17; 6,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,74</t>
+          <t>1,59; 6,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,35</t>
+          <t>0,79; 10,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,16</t>
+          <t>0,67; 5,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,56</t>
+          <t>2,2; 9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,03</t>
+          <t>1,74; 9,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,75</t>
+          <t>0,74; 7,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,56</t>
+          <t>2,28; 10,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 5,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,85</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,81</t>
+          <t>0,84; 4,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,52</t>
+          <t>2,9; 8,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,3</t>
+          <t>0,33; 3,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,09</t>
+          <t>1,04; 4,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,93</t>
+          <t>3,3; 7,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,51</t>
+          <t>2,24; 5,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,47</t>
+          <t>1,44; 4,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,55</t>
+          <t>1,95; 6,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,89</t>
+          <t>3,9; 8,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,28</t>
+          <t>2,64; 6,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,76</t>
+          <t>2,33; 5,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,86</t>
+          <t>1,25; 3,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,79</t>
+          <t>4,01; 6,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,25</t>
+          <t>2,88; 5,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,37</t>
+          <t>2,32; 4,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,65</t>
+          <t>1,86; 4,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,13</t>
+          <t>0,0; 29,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 49,07</t>
+          <t>9,64; 48,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,53</t>
+          <t>0,0; 28,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,48</t>
+          <t>0,0; 38,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 29,81</t>
+          <t>5,72; 30,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,37</t>
+          <t>0,0; 13,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,61</t>
+          <t>0,0; 20,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 14,03</t>
+          <t>2,99; 13,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,81</t>
+          <t>2,15; 11,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 14,64</t>
+          <t>3,53; 14,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,61</t>
+          <t>1,04; 9,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,26</t>
+          <t>1,05; 8,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 14,01</t>
+          <t>2,47; 14,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 12,09</t>
+          <t>2,05; 11,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,95</t>
+          <t>2,66; 9,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,64</t>
+          <t>2,21; 8,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 12,0</t>
+          <t>3,73; 11,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,57</t>
+          <t>1,52; 6,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,55</t>
+          <t>2,43; 10,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,84</t>
+          <t>1,19; 7,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,39</t>
+          <t>0,52; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,56</t>
+          <t>0,88; 6,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,23</t>
+          <t>3,53; 11,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,21</t>
+          <t>1,2; 7,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,25</t>
+          <t>1,43; 7,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,28</t>
+          <t>0,75; 6,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,8</t>
+          <t>3,77; 8,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,92</t>
+          <t>2,04; 5,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,38</t>
+          <t>1,14; 4,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,76</t>
+          <t>1,32; 5,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,95</t>
+          <t>1,86; 10,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,9</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,58</t>
+          <t>0,84; 7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 19,27</t>
+          <t>0,89; 19,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 12,04</t>
+          <t>2,6; 11,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,1</t>
+          <t>1,59; 10,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,16</t>
+          <t>1,61; 8,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,97</t>
+          <t>2,99; 9,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,0</t>
+          <t>1,25; 6,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,36</t>
+          <t>1,63; 6,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 10,61</t>
+          <t>0,86; 10,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,69</t>
+          <t>0,67; 5,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 9,83</t>
+          <t>2,21; 10,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,18</t>
+          <t>1,28; 8,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,15</t>
+          <t>0,73; 7,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 10,19</t>
+          <t>2,1; 10,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,0</t>
+          <t>0,0; 5,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,78</t>
+          <t>0,92; 4,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,38</t>
+          <t>2,79; 8,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,31</t>
+          <t>0,33; 3,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,98</t>
+          <t>0,98; 4,95</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,04</t>
+          <t>3,32; 7,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,62</t>
+          <t>2,34; 5,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,38</t>
+          <t>1,5; 4,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,72</t>
+          <t>1,82; 6,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,2</t>
+          <t>3,89; 8,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,14</t>
+          <t>2,8; 6,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,99</t>
+          <t>2,48; 5,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,93</t>
+          <t>1,2; 3,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,87</t>
+          <t>3,96; 6,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,27</t>
+          <t>2,96; 5,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,38</t>
+          <t>2,2; 4,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,57</t>
+          <t>1,83; 4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,61</t>
+          <t>3,86; 15,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,9; 8,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>4,11; 16,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,7; 10,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 48,17</t>
+          <t>3,32; 13,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,16</t>
+          <t>1,78; 11,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,44</t>
+          <t>2,06; 12,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 30,45</t>
+          <t>4,64; 12,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,8</t>
+          <t>2,04; 7,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,96</t>
+          <t>3,97; 11,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>1,26; 6,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,22</t>
+          <t>3,45; 10,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,08</t>
+          <t>1,75; 7,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,6</t>
+          <t>1,42; 7,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,71; 6,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,74</t>
+          <t>2,37; 10,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,23</t>
+          <t>1,22; 7,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 14,39</t>
+          <t>0,53; 4,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 11,72</t>
+          <t>0,88; 7,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,28</t>
+          <t>3,74; 9,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,4</t>
+          <t>2,03; 5,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,68</t>
+          <t>1,16; 4,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,95</t>
+          <t>1,26; 5,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,07</t>
+          <t>2,64; 11,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,27</t>
+          <t>1,84; 11,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,81</t>
+          <t>1,59; 8,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,66</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 11,17</t>
+          <t>1,75; 10,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,43</t>
+          <t>0,0; 5,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,23</t>
+          <t>0,85; 7,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,57</t>
+          <t>1,11; 18,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,51</t>
+          <t>3,19; 9,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,96</t>
+          <t>1,29; 6,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,48</t>
+          <t>1,69; 6,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,75</t>
+          <t>0,98; 10,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,13</t>
+          <t>0,74; 6,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>2,24; 10,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,47</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 19,22</t>
+          <t>0,0; 5,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,95</t>
+          <t>0,67; 6,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,52</t>
+          <t>2,18; 10,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,98</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>1,58; 8,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,08</t>
+          <t>0,9; 4,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,14</t>
+          <t>2,87; 8,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,73</t>
+          <t>0,33; 3,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,16</t>
+          <t>1,12; 5,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,67</t>
+          <t>4,08; 7,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,21</t>
+          <t>2,54; 6,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>2,39; 5,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 8,25</t>
+          <t>1,15; 3,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,42</t>
+          <t>3,21; 6,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,67</t>
+          <t>2,39; 5,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,48</t>
+          <t>1,57; 4,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>1,89; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,9</t>
+          <t>4,05; 6,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,14</t>
+          <t>2,9; 5,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,56</t>
+          <t>2,19; 4,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,95</t>
+          <t>1,95; 4,61</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 7,03</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 5,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 4,5</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 6,67</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,89; 8,01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 6,3</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 5,74</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 3,9</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 6,67</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 5,32</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 4,38</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 4,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
